--- a/ETL Framework/Data Priming.xlsx
+++ b/ETL Framework/Data Priming.xlsx
@@ -171,7 +171,7 @@
     <t>CREATE SEQUENCE PRIME_METADATA_TABLES_SEQ START WITH 1 INCREMENT BY 1;</t>
   </si>
   <si>
-    <t>CREATE SEQUENCE PRIME_METADATA_COLUMNS START WITH 1 INCREMENT BY 1;</t>
+    <t>CREATE SEQUENCE PRIME_METADATA_COLUMNS_SEQ START WITH 1 INCREMENT BY 1;</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +821,7 @@
   <dimension ref="B5:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
